--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-52100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1030,7 +1030,7 @@
         <v>1300</v>
       </c>
       <c r="I20" s="3">
-        <v>1000</v>
+        <v>-2500</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1105,7 +1105,7 @@
         <v>600</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-52700</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1117,7 +1117,7 @@
         <v>1100</v>
       </c>
       <c r="I23" s="3">
-        <v>700</v>
+        <v>-2800</v>
       </c>
       <c r="J23" s="3">
         <v>100</v>
@@ -1192,7 +1192,7 @@
         <v>600</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-52700</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1204,7 +1204,7 @@
         <v>800</v>
       </c>
       <c r="I26" s="3">
-        <v>600</v>
+        <v>-3000</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -1221,7 +1221,7 @@
         <v>600</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-52700</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1233,7 +1233,7 @@
         <v>800</v>
       </c>
       <c r="I27" s="3">
-        <v>600</v>
+        <v>-3000</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
@@ -1366,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>52100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1378,7 +1378,7 @@
         <v>-1300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -1395,7 +1395,7 @@
         <v>600</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-52700</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -1407,7 +1407,7 @@
         <v>800</v>
       </c>
       <c r="I33" s="3">
-        <v>600</v>
+        <v>-3000</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
@@ -1453,7 +1453,7 @@
         <v>600</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-52700</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -1465,7 +1465,7 @@
         <v>800</v>
       </c>
       <c r="I35" s="3">
-        <v>600</v>
+        <v>-3000</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
@@ -2028,11 +2028,11 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>50000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51900</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
@@ -2116,10 +2116,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74100</v>
+        <v>124100</v>
       </c>
       <c r="E62" s="3">
-        <v>8100</v>
+        <v>76200</v>
       </c>
       <c r="F62" s="3">
         <v>8100</v>
@@ -2131,7 +2131,7 @@
         <v>8100</v>
       </c>
       <c r="I62" s="3">
-        <v>8100</v>
+        <v>24000</v>
       </c>
       <c r="J62" s="3">
         <v>8100</v>
@@ -2235,7 +2235,7 @@
         <v>126000</v>
       </c>
       <c r="E66" s="3">
-        <v>8700</v>
+        <v>76800</v>
       </c>
       <c r="F66" s="3">
         <v>8300</v>
@@ -2247,7 +2247,7 @@
         <v>8500</v>
       </c>
       <c r="I66" s="3">
-        <v>8300</v>
+        <v>24300</v>
       </c>
       <c r="J66" s="3">
         <v>8100</v>
@@ -2393,7 +2393,7 @@
         <v>-54200</v>
       </c>
       <c r="E72" s="3">
-        <v>800</v>
+        <v>-54800</v>
       </c>
       <c r="F72" s="3">
         <v>1400</v>
@@ -2405,7 +2405,7 @@
         <v>1500</v>
       </c>
       <c r="I72" s="3">
-        <v>700</v>
+        <v>-2900</v>
       </c>
       <c r="J72" s="3">
         <v>100</v>
@@ -2509,7 +2509,7 @@
         <v>156100</v>
       </c>
       <c r="E76" s="3">
-        <v>223700</v>
+        <v>155600</v>
       </c>
       <c r="F76" s="3">
         <v>224300</v>
@@ -2521,7 +2521,7 @@
         <v>224400</v>
       </c>
       <c r="I76" s="3">
-        <v>223500</v>
+        <v>207600</v>
       </c>
       <c r="J76" s="3">
         <v>223000</v>
@@ -2601,7 +2601,7 @@
         <v>600</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-52700</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -2613,7 +2613,7 @@
         <v>800</v>
       </c>
       <c r="I81" s="3">
-        <v>600</v>
+        <v>-3000</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,109 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -770,19 +784,25 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,19 +838,21 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1400</v>
+        <v>25200</v>
       </c>
       <c r="E17" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-22700</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-23400</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1075,50 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>39500</v>
       </c>
       <c r="E20" s="3">
-        <v>-52100</v>
+        <v>-41700</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>17700</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1067,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1176,49 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>600</v>
+        <v>16800</v>
       </c>
       <c r="E23" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-52700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1143,19 +1235,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>16800</v>
       </c>
       <c r="E26" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-52700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="E27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-52700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-39500</v>
       </c>
       <c r="E32" s="3">
-        <v>52100</v>
+        <v>41700</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-52700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="E35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-52700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>360400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>402600</v>
+      </c>
+      <c r="F41" s="3">
         <v>50100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,74 +1771,92 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>6200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -1673,129 +1871,159 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>370600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>414600</v>
+      </c>
+      <c r="F46" s="3">
         <v>50200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
         <v>231900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>232200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>232100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>232100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>232300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>231200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>230200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>83400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>61000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>482700</v>
+      </c>
+      <c r="F54" s="3">
         <v>282100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>232400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>232600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>232600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>232900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>231800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>231100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,49 +2225,57 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2023,66 +2291,84 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>8700</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+        <v>9300</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>121800</v>
+      </c>
+      <c r="F62" s="3">
         <v>124100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>76200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8100</v>
       </c>
       <c r="H62" s="3">
         <v>8100</v>
       </c>
       <c r="I62" s="3">
-        <v>24000</v>
+        <v>8100</v>
       </c>
       <c r="J62" s="3">
         <v>8100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>359300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>386200</v>
+      </c>
+      <c r="F66" s="3">
         <v>126000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>76800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-54200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-54800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>96500</v>
+      </c>
+      <c r="F76" s="3">
         <v>156100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>155600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>224300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>224300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>224400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>207600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>223000</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>4100</v>
       </c>
       <c r="E81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-52700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>366400</v>
+      </c>
+      <c r="F100" s="3">
         <v>50500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>309900</v>
+      </c>
+      <c r="F102" s="3">
         <v>49900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
@@ -746,8 +749,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -755,23 +758,26 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,23 +796,26 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,23 +852,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E12" s="3">
         <v>12900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,13 +976,13 @@
         <v>900</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -971,8 +993,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,25 +1017,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E17" s="3">
         <v>25200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1019,31 +1045,34 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1053,17 +1082,20 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,23 +1109,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>39500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1103,26 +1136,29 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E21" s="3">
         <v>17700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,55 +1221,61 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1241,19 +1286,22 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-65200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,23 +1563,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-39500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1523,52 +1592,58 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>321800</v>
+      </c>
+      <c r="E41" s="3">
         <v>360400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>402600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
+        <v>500</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,19 +1866,22 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>1300</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1803,8 +1895,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1812,20 +1904,23 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1838,8 +1933,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1847,19 +1942,22 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -1877,48 +1975,54 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E46" s="3">
         <v>370600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>414600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,44 +2032,47 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
         <v>231900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>232200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>232100</v>
       </c>
       <c r="I47" s="3">
         <v>232100</v>
       </c>
       <c r="J47" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K47" s="3">
         <v>232300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>231200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>230200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E48" s="3">
         <v>83400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1978,8 +2085,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1987,20 +2094,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2013,8 +2123,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,20 +2208,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2118,8 +2237,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>443900</v>
+      </c>
+      <c r="E54" s="3">
         <v>461000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>482700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>282100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>232400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>232600</v>
       </c>
       <c r="I54" s="3">
         <v>232600</v>
       </c>
       <c r="J54" s="3">
+        <v>232600</v>
+      </c>
+      <c r="K54" s="3">
         <v>232900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,28 +2356,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2257,13 +2387,16 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,12 +2406,12 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2297,22 +2430,25 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2321,59 +2457,65 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E60" s="3">
         <v>15400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2402,25 +2544,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E62" s="3">
         <v>82500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>8100</v>
       </c>
       <c r="I62" s="3">
         <v>8100</v>
@@ -2429,16 +2574,19 @@
         <v>8100</v>
       </c>
       <c r="K62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L62" s="3">
         <v>24000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>343700</v>
+      </c>
+      <c r="E66" s="3">
         <v>359300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>386200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>126000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>76800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>8300</v>
       </c>
       <c r="I66" s="3">
         <v>8300</v>
       </c>
       <c r="J66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1500</v>
       </c>
       <c r="J72" s="3">
         <v>1500</v>
       </c>
       <c r="K72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E76" s="3">
         <v>101700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>155600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>224300</v>
       </c>
       <c r="I76" s="3">
         <v>224300</v>
       </c>
       <c r="J76" s="3">
+        <v>224300</v>
+      </c>
+      <c r="K76" s="3">
         <v>224400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223000</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-52700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,16 +3229,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>900</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3058,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,31 +3455,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -3274,11 +3490,14 @@
       <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,17 +3511,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3318,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,23 +3829,26 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>366400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>50500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3613,25 +3858,28 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>-100</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
@@ -3648,8 +3896,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>309900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,139 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,29 +813,35 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="E10" s="3">
         <v>400</v>
       </c>
       <c r="F10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,29 +879,31 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="3">
         <v>18800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>12900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>15400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -891,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,46 +1007,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E17" s="3">
         <v>34700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="G17" s="3">
         <v>25200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>26200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-22700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-23400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,66 +1176,74 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>39500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-41700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>17700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-11500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1186,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,64 +1304,76 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-65100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-52700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1289,19 +1381,25 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-65200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-52700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-52700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-39500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>41700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-52700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-52700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>253700</v>
+      </c>
+      <c r="F41" s="3">
         <v>321800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>360400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>402600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>50100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +2049,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1898,35 +2084,41 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -1936,34 +2128,40 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -1978,51 +2176,63 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>232900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>272900</v>
+      </c>
+      <c r="F46" s="3">
         <v>335800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>370600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>414600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>50200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,50 +2245,56 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>231900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>232200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>232100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>232100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>232300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>231200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>230200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>122800</v>
+      </c>
+      <c r="F48" s="3">
         <v>103900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>83400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>61000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2088,35 +2304,41 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2126,17 +2348,23 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2445,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2240,17 +2480,23 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>384900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>414600</v>
+      </c>
+      <c r="F54" s="3">
         <v>443900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>461000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>482700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>282100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>232400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>232600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>232600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>232900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>231800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>231100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2617,54 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2409,15 +2677,15 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2433,96 +2701,114 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F59" s="3">
         <v>14700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F60" s="3">
         <v>21400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F61" s="3">
         <v>5000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2547,46 +2833,58 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F62" s="3">
         <v>65600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>82500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>121800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>124100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>76200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8100</v>
       </c>
       <c r="K62" s="3">
         <v>8100</v>
       </c>
       <c r="L62" s="3">
-        <v>24000</v>
+        <v>8100</v>
       </c>
       <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>323500</v>
+      </c>
+      <c r="F66" s="3">
         <v>343700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>359300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>386200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>126000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>76800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-70500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-67400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-71500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-54200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F76" s="3">
         <v>100300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>101700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>96500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>156100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>155600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>224300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>224300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>224400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>207600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>223000</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-52700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,28 +3626,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3259,17 +3657,23 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-21500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-37500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,28 +3952,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2700</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3541,17 +3983,23 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-21900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,57 +4333,63 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>366400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>50500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -3899,51 +4397,63 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-35900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-42200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>309900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>49900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -754,8 +754,8 @@
       <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3">
+        <v>2700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -798,8 +798,8 @@
       <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -842,8 +842,8 @@
       <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>2300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -904,8 +904,8 @@
       <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>5600</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -1036,8 +1036,8 @@
       <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1096,7 +1096,7 @@
         <v>13000</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>11100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
@@ -1139,8 +1139,8 @@
       <c r="I18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3">
+        <v>-8400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1201,8 +1201,8 @@
       <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1245,8 +1245,8 @@
       <c r="I21" s="3">
         <v>-11500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-8000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1334,7 +1334,7 @@
         <v>-12100</v>
       </c>
       <c r="J23" s="3">
-        <v>-52700</v>
+        <v>-8400</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>-12100</v>
       </c>
       <c r="J26" s="3">
-        <v>-52700</v>
+        <v>-8600</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1510,7 +1510,7 @@
         <v>-11600</v>
       </c>
       <c r="J27" s="3">
-        <v>-52700</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1729,8 +1729,8 @@
       <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1774,7 +1774,7 @@
         <v>-11600</v>
       </c>
       <c r="J33" s="3">
-        <v>-52700</v>
+        <v>-8500</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1862,7 +1862,7 @@
         <v>-11600</v>
       </c>
       <c r="J35" s="3">
-        <v>-52700</v>
+        <v>-8500</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1987,11 +1987,11 @@
       <c r="H41" s="3">
         <v>402600</v>
       </c>
-      <c r="I41" s="3">
-        <v>50100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
@@ -2163,11 +2163,11 @@
       <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2207,11 +2207,11 @@
       <c r="H46" s="3">
         <v>414600</v>
       </c>
-      <c r="I46" s="3">
-        <v>50200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
@@ -2236,26 +2236,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>231900</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>232200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>232100</v>
@@ -2559,11 +2559,11 @@
       <c r="H54" s="3">
         <v>482700</v>
       </c>
-      <c r="I54" s="3">
-        <v>282100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>232400</v>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K54" s="3">
         <v>232600</v>
@@ -2639,11 +2639,11 @@
       <c r="H57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2668,26 +2668,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2730,8 +2730,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2771,11 +2771,11 @@
       <c r="H60" s="3">
         <v>15600</v>
       </c>
-      <c r="I60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2859,11 +2859,11 @@
       <c r="H62" s="3">
         <v>121800</v>
       </c>
-      <c r="I62" s="3">
-        <v>124100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>76200</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>8100</v>
@@ -3035,11 +3035,11 @@
       <c r="H66" s="3">
         <v>386200</v>
       </c>
-      <c r="I66" s="3">
-        <v>126000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>76800</v>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>8300</v>
@@ -3273,11 +3273,11 @@
       <c r="H72" s="3">
         <v>-71500</v>
       </c>
-      <c r="I72" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-54800</v>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K72" s="3">
         <v>1400</v>
@@ -3449,11 +3449,11 @@
       <c r="H76" s="3">
         <v>96500</v>
       </c>
-      <c r="I76" s="3">
-        <v>156100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>155600</v>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>224300</v>
@@ -3590,7 +3590,7 @@
         <v>-11600</v>
       </c>
       <c r="J81" s="3">
-        <v>-52700</v>
+        <v>-8500</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3651,8 +3651,8 @@
       <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3910,13 +3910,13 @@
         <v>-20200</v>
       </c>
       <c r="H89" s="3">
-        <v>-37500</v>
+        <v>-29800</v>
       </c>
       <c r="I89" s="3">
-        <v>-900</v>
+        <v>-8500</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-9700</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3977,8 +3977,8 @@
       <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-4400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4104,13 +4104,13 @@
         <v>-21900</v>
       </c>
       <c r="H94" s="3">
-        <v>-18900</v>
+        <v>-7200</v>
       </c>
       <c r="I94" s="3">
-        <v>300</v>
+        <v>-11400</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4342,13 +4342,13 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>366400</v>
+        <v>417500</v>
       </c>
       <c r="I100" s="3">
-        <v>50500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+        <v>-600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -4391,8 +4391,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>-200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4430,13 +4430,13 @@
         <v>-42200</v>
       </c>
       <c r="H102" s="3">
-        <v>309900</v>
+        <v>380400</v>
       </c>
       <c r="I102" s="3">
-        <v>49900</v>
+        <v>-20600</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-20300</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>7300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -775,35 +779,38 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,35 +826,38 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,35 +894,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E12" s="3">
         <v>21100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,34 +1045,34 @@
         <v>1200</v>
       </c>
       <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
         <v>1100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>900</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
       </c>
       <c r="H15" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
       </c>
       <c r="J15" s="3">
+        <v>600</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1098,35 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E17" s="3">
         <v>37600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>34700</v>
       </c>
       <c r="F17" s="3">
         <v>34700</v>
       </c>
       <c r="G17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="H17" s="3">
         <v>25200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1108,60 +1135,66 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,34 +1211,35 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E20" s="3">
         <v>22300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>39500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1213,44 +1247,47 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-36700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-64500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,34 +1773,37 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-39500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1741,61 +1811,67 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E41" s="3">
         <v>202400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>253700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>321800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>360400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>402600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>400</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>500</v>
       </c>
       <c r="O41" s="3">
+        <v>500</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,28 +2145,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1300</v>
       </c>
       <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>1300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2090,8 +2183,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2099,29 +2192,32 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2134,8 +2230,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2143,34 +2239,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E45" s="3">
         <v>23500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2182,57 +2281,63 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E46" s="3">
         <v>232900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>272900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>335800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>370600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>414600</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2258,46 +2363,49 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>232100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>232100</v>
       </c>
       <c r="M47" s="3">
+        <v>232100</v>
+      </c>
+      <c r="N47" s="3">
         <v>232300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>231200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>230200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E48" s="3">
         <v>132000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>122800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>103900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>83400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2310,8 +2418,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,29 +2427,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2354,8 +2465,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E52" s="3">
         <v>16500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2486,8 +2606,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>386300</v>
+      </c>
+      <c r="E54" s="3">
         <v>384900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>443900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>461000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>482700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
-        <v>232600</v>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L54" s="3">
         <v>232600</v>
       </c>
       <c r="M54" s="3">
+        <v>232600</v>
+      </c>
+      <c r="N54" s="3">
         <v>232900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>231800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2749,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -2658,13 +2789,16 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,8 +2823,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2707,111 +2841,120 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
         <v>17000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
         <v>22200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E61" s="3">
         <v>4900</v>
       </c>
       <c r="F61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,34 +2982,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E62" s="3">
         <v>47500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>8100</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>8100</v>
@@ -2875,16 +3021,19 @@
         <v>8100</v>
       </c>
       <c r="N62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O62" s="3">
         <v>24000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E66" s="3">
         <v>294100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>323500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>343700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>359300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>386200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>8300</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>8300</v>
       </c>
       <c r="M66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>1400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1500</v>
       </c>
       <c r="M72" s="3">
         <v>1500</v>
       </c>
       <c r="N72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E76" s="3">
         <v>90800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
-        <v>224300</v>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L76" s="3">
         <v>224300</v>
       </c>
       <c r="M76" s="3">
+        <v>224300</v>
+      </c>
+      <c r="N76" s="3">
         <v>224400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>223000</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,34 +3836,34 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
       </c>
       <c r="H83" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
+        <v>600</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,40 +4106,43 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-41000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-47500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-29800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -3933,11 +4150,14 @@
       <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,43 +4174,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4300</v>
       </c>
       <c r="H91" s="3">
         <v>-4300</v>
       </c>
       <c r="I91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +4567,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>17000</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4339,48 +4585,51 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>417500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
@@ -4389,22 +4638,22 @@
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-52700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-69400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-35900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>380400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,171 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,41 +842,47 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2800</v>
       </c>
       <c r="H10" s="3">
         <v>400</v>
       </c>
       <c r="I10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,41 +920,43 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>20000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>18800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>12900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1075,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F17" s="3">
         <v>44600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>25200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-30300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-32300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-22700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-23400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-12000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,88 +1277,96 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F20" s="3">
         <v>8900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>22300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-5500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>39500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-41700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-36700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>17700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-64500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,75 +1432,87 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-31500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>16800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-65100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1433,22 +1524,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-32100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-37900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-65200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-8900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-22300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>5500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-39500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>41700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>238600</v>
+      </c>
+      <c r="F41" s="3">
         <v>198900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>202400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>253700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>321800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>360400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>402600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,35 +2327,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2186,44 +2371,50 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2233,49 +2424,55 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F45" s="3">
         <v>26400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2284,60 +2481,72 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>268300</v>
+      </c>
+      <c r="F46" s="3">
         <v>225300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>232900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>272900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>335800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>370600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>414600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2366,52 +2575,58 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>232100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>232100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>232300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>231200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>230200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>153700</v>
+      </c>
+      <c r="F48" s="3">
         <v>143500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>132000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>122800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>103900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>83400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>61000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,44 +2636,50 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2468,17 +2689,23 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2804,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F52" s="3">
         <v>17400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>16500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>15100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2609,17 +2848,23 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>438400</v>
+      </c>
+      <c r="F54" s="3">
         <v>386300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>384900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>414600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>443900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>461000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>482700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>232600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>232600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>232900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>231800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>231100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F57" s="3">
         <v>9500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>6300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2826,11 +3093,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2844,123 +3111,141 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F59" s="3">
         <v>11600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>16000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>22200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>22900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>21400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>15400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F62" s="3">
         <v>63600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>47500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>70900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>65600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>82500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>121800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>8100</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>8100</v>
       </c>
       <c r="O62" s="3">
-        <v>24000</v>
+        <v>8100</v>
       </c>
       <c r="P62" s="3">
         <v>8100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>304800</v>
+      </c>
+      <c r="F66" s="3">
         <v>295000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>294100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>323500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>343700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>359300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>386200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>24300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-93900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-84100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-81200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-70500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-67400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-71500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>316900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>133500</v>
+      </c>
+      <c r="F76" s="3">
         <v>91300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>90800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>91000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>101700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>96500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>224300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>224300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>224400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>207600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>223000</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-41000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-47500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-29800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8500</v>
+        <v>-15400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7500</v>
+        <v>-11400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4700</v>
+        <v>-12300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3800</v>
+        <v>-12000</v>
       </c>
       <c r="H91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F94" s="3">
         <v>13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-21600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-21900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F100" s="3">
         <v>17000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>417500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-52700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-69400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-35900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-42200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>380400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-20600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-20300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>ASTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,40 +758,40 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,33 +813,33 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,33 +869,33 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,44 +935,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E12" s="3">
         <v>32900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,52 +1101,55 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1200</v>
       </c>
       <c r="G15" s="3">
         <v>1200</v>
       </c>
       <c r="H15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="3">
         <v>1100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>900</v>
       </c>
       <c r="J15" s="3">
         <v>900</v>
       </c>
       <c r="K15" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L15" s="3">
         <v>600</v>
       </c>
       <c r="M15" s="3">
+        <v>600</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,43 +1178,44 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>58100</v>
       </c>
       <c r="E17" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F17" s="3">
         <v>42600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>34700</v>
       </c>
       <c r="I17" s="3">
         <v>34700</v>
       </c>
       <c r="J17" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K17" s="3">
         <v>25200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1197,16 +1224,19 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-42600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-23400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,34 +1322,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>17400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>39500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1323,17 +1357,20 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,35 +1378,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-30300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-36700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-64500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-49600</v>
       </c>
       <c r="E26" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-25100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-18400</v>
       </c>
       <c r="E27" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,34 +1994,34 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-17400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-39500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1959,70 +2029,76 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-18400</v>
       </c>
       <c r="E33" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-18400</v>
       </c>
       <c r="E35" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E41" s="3">
         <v>185000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>238600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>198900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>202400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>253700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>321800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>360400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>402600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>400</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,37 +2423,40 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1300</v>
       </c>
       <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>1300</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2377,8 +2470,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2386,38 +2479,41 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,8 +2526,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2439,43 +2535,46 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E45" s="3">
         <v>42100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2487,66 +2586,72 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E46" s="3">
         <v>227100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>268300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>225300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>232900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>272900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>335800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>370600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>414600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2581,55 +2686,58 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>232100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>232100</v>
       </c>
       <c r="P47" s="3">
+        <v>232100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>232300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>231200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>230200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E48" s="3">
         <v>171900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>153700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>143500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>132000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>122800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>103900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>83400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2642,8 +2750,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,38 +2759,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>3400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2854,8 +2974,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>408500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>438400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>386300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>384900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>443900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>461000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>482700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
-        <v>232600</v>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O54" s="3">
         <v>232600</v>
       </c>
       <c r="P54" s="3">
+        <v>232600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>232900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>231800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>231100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,46 +3141,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>11300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3059,13 +3190,16 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3117,138 +3251,147 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E59" s="3">
         <v>24200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E60" s="3">
         <v>35500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4800</v>
       </c>
       <c r="F61" s="3">
         <v>4800</v>
       </c>
       <c r="G61" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="H61" s="3">
         <v>4900</v>
       </c>
       <c r="I61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,43 +3419,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E62" s="3">
         <v>43600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>46000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>63600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>47500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>82500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>8100</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>8100</v>
@@ -3321,16 +3467,19 @@
         <v>8100</v>
       </c>
       <c r="Q62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R62" s="3">
         <v>24000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E66" s="3">
         <v>282100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>304800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>295000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>294100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>323500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>359300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>386200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
-        <v>8300</v>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O66" s="3">
         <v>8300</v>
       </c>
       <c r="P66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-136800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-102100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-81200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-70500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>1400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1500</v>
       </c>
       <c r="P72" s="3">
         <v>1500</v>
       </c>
       <c r="Q72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>316900</v>
+        <v>146200</v>
       </c>
       <c r="E76" s="3">
+        <v>118700</v>
+      </c>
+      <c r="F76" s="3">
         <v>133500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
-        <v>224300</v>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O76" s="3">
         <v>224300</v>
       </c>
       <c r="P76" s="3">
+        <v>224300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>224400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>207600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>223000</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-18400</v>
       </c>
       <c r="E81" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,52 +4422,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>900</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
       </c>
       <c r="K83" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>600</v>
       </c>
       <c r="M83" s="3">
+        <v>600</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,49 +4756,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -4592,11 +4809,14 @@
       <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,52 +4836,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,22 +5304,25 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>63600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>85000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5085,57 +5331,60 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>417500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
@@ -5144,22 +5393,22 @@
         <v>-100</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-69400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-35900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>380400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
